--- a/Report of Foresty_20251127/合併估算/縣市的調查相對密度.xlsx
+++ b/Report of Foresty_20251127/合併估算/縣市的調查相對密度.xlsx
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>57.625</v>
+        <v>57.62</v>
       </c>
       <c r="C2">
         <v>3.047</v>
       </c>
       <c r="D2">
-        <v>6.375</v>
+        <v>6.38</v>
       </c>
       <c r="E2">
         <v>0.754</v>
@@ -767,13 +767,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>375.375</v>
+        <v>375.38</v>
       </c>
       <c r="C3">
         <v>3.595</v>
       </c>
       <c r="D3">
-        <v>30.625</v>
+        <v>30.62</v>
       </c>
       <c r="E3">
         <v>2.853</v>
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>175.125</v>
+        <v>175.12</v>
       </c>
       <c r="C4">
         <v>2.539</v>
       </c>
       <c r="D4">
-        <v>10.625</v>
+        <v>10.62</v>
       </c>
       <c r="E4">
         <v>0.596</v>
@@ -823,7 +823,7 @@
         <v>6.706</v>
       </c>
       <c r="D5">
-        <v>13.375</v>
+        <v>13.38</v>
       </c>
       <c r="E5">
         <v>1.614</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B6">
-        <v>402.125</v>
+        <v>402.12</v>
       </c>
       <c r="C6">
         <v>5.456</v>
       </c>
       <c r="D6">
-        <v>19.375</v>
+        <v>19.38</v>
       </c>
       <c r="E6">
         <v>1.133</v>
@@ -873,7 +873,7 @@
         <v>2.946</v>
       </c>
       <c r="D7">
-        <v>9.125</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="E7">
         <v>1.172</v>
@@ -898,7 +898,7 @@
         <v>19.3</v>
       </c>
       <c r="D8">
-        <v>13.875</v>
+        <v>13.88</v>
       </c>
       <c r="E8">
         <v>0.895</v>
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>230.125</v>
+        <v>230.12</v>
       </c>
       <c r="C9">
         <v>4.779</v>
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>376.875</v>
+        <v>376.88</v>
       </c>
       <c r="C10">
         <v>10.197</v>
@@ -998,7 +998,7 @@
         <v>16.272</v>
       </c>
       <c r="D12">
-        <v>3.625</v>
+        <v>3.62</v>
       </c>
       <c r="E12">
         <v>0.778</v>
@@ -1048,7 +1048,7 @@
         <v>11.426</v>
       </c>
       <c r="D14">
-        <v>1.125</v>
+        <v>1.12</v>
       </c>
       <c r="E14">
         <v>0.295</v>
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>143.875</v>
+        <v>143.88</v>
       </c>
       <c r="C15">
         <v>3.114</v>
@@ -1098,7 +1098,7 @@
         <v>1.547</v>
       </c>
       <c r="D16">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="E16">
         <v>0.125</v>
@@ -1123,7 +1123,7 @@
         <v>2.42</v>
       </c>
       <c r="D17">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="E17">
         <v>0.263</v>
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>13.625</v>
+        <v>13.62</v>
       </c>
       <c r="C18">
         <v>1.209</v>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>9.875</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="C20">
         <v>1.457</v>
@@ -1282,10 +1282,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.01683867463335144</v>
+        <v>0.01738185768604019</v>
       </c>
       <c r="C2">
-        <v>0.02390684410646388</v>
+        <v>0.02382743074416078</v>
       </c>
       <c r="D2">
         <v>0.0309614340032591</v>
@@ -1294,19 +1294,19 @@
         <v>1634.655200672119</v>
       </c>
       <c r="F2">
-        <v>1243.93743427029</v>
+        <v>1239.805343321347</v>
       </c>
       <c r="G2">
-        <v>876.1615555212491</v>
+        <v>904.4248315058055</v>
       </c>
       <c r="H2">
         <v>1611.006731119716</v>
       </c>
       <c r="I2">
-        <v>7.126036978039395</v>
+        <v>7.122709665083784</v>
       </c>
       <c r="J2">
-        <v>31098.43585675724</v>
+        <v>30995.13358303369</v>
       </c>
     </row>
     <row r="3">
@@ -1316,10 +1316,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.04072116879079888</v>
+        <v>0.04103201740752253</v>
       </c>
       <c r="C3">
-        <v>0.04815175629468449</v>
+        <v>0.04823077401305564</v>
       </c>
       <c r="D3">
         <v>0.05564190239353435</v>
@@ -1328,19 +1328,19 @@
         <v>3645.048676261048</v>
       </c>
       <c r="F3">
-        <v>5586.83174093333</v>
+        <v>5595.999811447527</v>
       </c>
       <c r="G3">
-        <v>4724.694088748182</v>
+        <v>4760.760455837863</v>
       </c>
       <c r="H3">
         <v>6455.879709052861</v>
       </c>
       <c r="I3">
-        <v>8.628167632831195</v>
+        <v>8.629807302091219</v>
       </c>
       <c r="J3">
-        <v>139670.7935233333</v>
+        <v>139899.9952861882</v>
       </c>
     </row>
     <row r="4">
@@ -1353,7 +1353,7 @@
         <v>0.02062556663644606</v>
       </c>
       <c r="C4">
-        <v>0.0251530598368087</v>
+        <v>0.02517289211242067</v>
       </c>
       <c r="D4">
         <v>0.02991840435176791</v>
@@ -1362,7 +1362,7 @@
         <v>2968.294063488158</v>
       </c>
       <c r="F4">
-        <v>2376.55502876378</v>
+        <v>2378.428856228241</v>
       </c>
       <c r="G4">
         <v>1948.780563039739</v>
@@ -1371,10 +1371,10 @@
         <v>2826.802574958742</v>
       </c>
       <c r="I4">
-        <v>7.773407251167333</v>
+        <v>7.77419540423232</v>
       </c>
       <c r="J4">
-        <v>59413.8757190945</v>
+        <v>59460.72140570602</v>
       </c>
     </row>
     <row r="5">
@@ -1387,7 +1387,7 @@
         <v>0.04853675945753034</v>
       </c>
       <c r="C5">
-        <v>0.06056623840114204</v>
+        <v>0.06061905781584583</v>
       </c>
       <c r="D5">
         <v>0.07351891506067094</v>
@@ -1396,7 +1396,7 @@
         <v>1481.890645096863</v>
       </c>
       <c r="F5">
-        <v>2856.912145907953</v>
+        <v>2859.4036400372</v>
       </c>
       <c r="G5">
         <v>2289.481091739989</v>
@@ -1405,10 +1405,10 @@
         <v>3467.890477194395</v>
       </c>
       <c r="I5">
-        <v>7.957496651288228</v>
+        <v>7.958368364601598</v>
       </c>
       <c r="J5">
-        <v>71422.80364769883</v>
+        <v>71485.09100093</v>
       </c>
     </row>
     <row r="6">
@@ -1421,7 +1421,7 @@
         <v>0.01051893408134642</v>
       </c>
       <c r="C6">
-        <v>0.01684586255259467</v>
+        <v>0.01682384291725105</v>
       </c>
       <c r="D6">
         <v>0.02384291725105189</v>
@@ -1430,7 +1430,7 @@
         <v>1201.968536003113</v>
       </c>
       <c r="F6">
-        <v>644.5201202936012</v>
+        <v>643.677652419001</v>
       </c>
       <c r="G6">
         <v>402.4528063376384</v>
@@ -1439,10 +1439,10 @@
         <v>912.2263610319803</v>
       </c>
       <c r="I6">
-        <v>6.468506040345954</v>
+        <v>6.467198061070482</v>
       </c>
       <c r="J6">
-        <v>16113.00300734003</v>
+        <v>16091.94131047503</v>
       </c>
     </row>
     <row r="7">
@@ -1455,7 +1455,7 @@
         <v>0.001737619461337967</v>
       </c>
       <c r="C7">
-        <v>0.005186099044309296</v>
+        <v>0.005204952215464813</v>
       </c>
       <c r="D7">
         <v>0.009556907037358819</v>
@@ -1464,7 +1464,7 @@
         <v>446.6481564412842</v>
       </c>
       <c r="F7">
-        <v>73.73207900189809</v>
+        <v>74.00011929445675</v>
       </c>
       <c r="G7">
         <v>24.70417442937013</v>
@@ -1473,10 +1473,10 @@
         <v>135.8729593615357</v>
       </c>
       <c r="I7">
-        <v>4.300437969107043</v>
+        <v>4.304066705290124</v>
       </c>
       <c r="J7">
-        <v>1843.301975047452</v>
+        <v>1850.002982361419</v>
       </c>
     </row>
     <row r="8">
@@ -1489,28 +1489,28 @@
         <v>0.0290224032586558</v>
       </c>
       <c r="C8">
-        <v>0.03713019348268839</v>
+        <v>0.03710656822810591</v>
       </c>
       <c r="D8">
-        <v>0.04531568228105906</v>
+        <v>0.04582484725050916</v>
       </c>
       <c r="E8">
         <v>1638.188675842194</v>
       </c>
       <c r="F8">
-        <v>1936.160069182285</v>
+        <v>1934.928126381659</v>
       </c>
       <c r="G8">
         <v>1513.378009390504</v>
       </c>
       <c r="H8">
-        <v>2362.993733960611</v>
+        <v>2389.544225353427</v>
       </c>
       <c r="I8">
-        <v>7.56846194478144</v>
+        <v>7.567825460785221</v>
       </c>
       <c r="J8">
-        <v>48404.00172955713</v>
+        <v>48373.20315954147</v>
       </c>
     </row>
     <row r="9">
@@ -1559,28 +1559,28 @@
         <v>0.08242950108459871</v>
       </c>
       <c r="C10">
-        <v>0.1106683297180043</v>
+        <v>0.1105898047722343</v>
       </c>
       <c r="D10">
-        <v>0.1388828633405632</v>
+        <v>0.1388286334056399</v>
       </c>
       <c r="E10">
         <v>96.60219374493408</v>
       </c>
       <c r="F10">
-        <v>340.2988422649536</v>
+        <v>340.0573825067503</v>
       </c>
       <c r="G10">
         <v>253.4660445227917</v>
       </c>
       <c r="H10">
-        <v>427.0569342255696</v>
+        <v>426.8901802489123</v>
       </c>
       <c r="I10">
-        <v>5.829824179399849</v>
+        <v>5.829114375448479</v>
       </c>
       <c r="J10">
-        <v>8507.471056623839</v>
+        <v>8501.434562668759</v>
       </c>
     </row>
     <row r="11">
@@ -1593,7 +1593,7 @@
         <v>0.007330246913580247</v>
       </c>
       <c r="C11">
-        <v>0.01114282407407407</v>
+        <v>0.0111852237654321</v>
       </c>
       <c r="D11">
         <v>0.0154320987654321</v>
@@ -1602,7 +1602,7 @@
         <v>1483.373205830627</v>
       </c>
       <c r="F11">
-        <v>526.133349907056</v>
+        <v>528.135346124615</v>
       </c>
       <c r="G11">
         <v>346.1139957563503</v>
@@ -1611,10 +1611,10 @@
         <v>728.6610436975797</v>
       </c>
       <c r="I11">
-        <v>6.265554697541289</v>
+        <v>6.26935258821468</v>
       </c>
       <c r="J11">
-        <v>13153.3337476764</v>
+        <v>13203.38365311538</v>
       </c>
     </row>
     <row r="12">
@@ -1663,7 +1663,7 @@
         <v>0.0008532423208191126</v>
       </c>
       <c r="C13">
-        <v>0.004255631399317407</v>
+        <v>0.004235665529010239</v>
       </c>
       <c r="D13">
         <v>0.008532423208191127</v>
@@ -1672,7 +1672,7 @@
         <v>1015.8571365</v>
       </c>
       <c r="F13">
-        <v>137.6089774837674</v>
+        <v>136.9633663535404</v>
       </c>
       <c r="G13">
         <v>27.59021924046984</v>
@@ -1681,10 +1681,10 @@
         <v>275.9021924046984</v>
       </c>
       <c r="I13">
-        <v>4.924416166712322</v>
+        <v>4.919713491191403</v>
       </c>
       <c r="J13">
-        <v>3440.224437094185</v>
+        <v>3424.08415883851</v>
       </c>
     </row>
     <row r="14">
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.04503105590062112</v>
+        <v>0.04554865424430642</v>
       </c>
       <c r="C15">
-        <v>0.05543090062111801</v>
+        <v>0.05538747412008282</v>
       </c>
       <c r="D15">
         <v>0.06573498964803312</v>
@@ -1742,19 +1742,19 @@
         <v>749.547954275055</v>
       </c>
       <c r="F15">
-        <v>1322.517676399174</v>
+        <v>1321.481569920663</v>
       </c>
       <c r="G15">
-        <v>1074.38931621475</v>
+        <v>1086.738618699977</v>
       </c>
       <c r="H15">
         <v>1568.36141562383</v>
       </c>
       <c r="I15">
-        <v>7.187292529540428</v>
+        <v>7.186508787613883</v>
       </c>
       <c r="J15">
-        <v>33062.94190997934</v>
+        <v>33037.03924801658</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.003494014084507042</v>
+        <v>0.003491197183098592</v>
       </c>
       <c r="D16">
         <v>0.01056338028169014</v>
@@ -1776,7 +1776,7 @@
         <v>75.24642469546509</v>
       </c>
       <c r="F16">
-        <v>8.368751034426207</v>
+        <v>8.362004082065489</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>25.30107135269437</v>
       </c>
       <c r="I16">
-        <v>2.124504654063158</v>
+        <v>2.123698121102813</v>
       </c>
       <c r="J16">
-        <v>209.2187758606552</v>
+        <v>209.0501020516372</v>
       </c>
     </row>
     <row r="17">
@@ -1801,28 +1801,28 @@
         <v>0.01791044776119403</v>
       </c>
       <c r="C17">
-        <v>0.02320407960199005</v>
+        <v>0.02321532338308458</v>
       </c>
       <c r="D17">
-        <v>0.02885572139303482</v>
+        <v>0.02852404643449419</v>
       </c>
       <c r="E17">
         <v>1103.588787192688</v>
       </c>
       <c r="F17">
-        <v>815.1203828612742</v>
+        <v>815.51535802546</v>
       </c>
       <c r="G17">
         <v>629.1639783492753</v>
       </c>
       <c r="H17">
-        <v>1013.653076229388</v>
+        <v>1002.001891445142</v>
       </c>
       <c r="I17">
-        <v>6.703335811365196</v>
+        <v>6.703820254532983</v>
       </c>
       <c r="J17">
-        <v>20378.00957153185</v>
+        <v>20387.8839506365</v>
       </c>
     </row>
     <row r="18">
@@ -1835,7 +1835,7 @@
         <v>0.00419287211740042</v>
       </c>
       <c r="C18">
-        <v>0.009420335429769392</v>
+        <v>0.009378092243186583</v>
       </c>
       <c r="D18">
         <v>0.01572327044025157</v>
@@ -1844,7 +1844,7 @@
         <v>95.39614812567139</v>
       </c>
       <c r="F18">
-        <v>28.60535445373283</v>
+        <v>28.47708074899426</v>
       </c>
       <c r="G18">
         <v>12.73188136362872</v>
@@ -1853,10 +1853,10 @@
         <v>47.7445551136077</v>
       </c>
       <c r="I18">
-        <v>3.353593918964567</v>
+        <v>3.349099579499176</v>
       </c>
       <c r="J18">
-        <v>715.1338613433206</v>
+        <v>711.9270187248566</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.0715950715950716</v>
+        <v>0.07192807192807193</v>
       </c>
       <c r="C19">
-        <v>0.08152727272727273</v>
+        <v>0.08158721278721279</v>
       </c>
       <c r="D19">
-        <v>0.09124209124209125</v>
+        <v>0.09157509157509157</v>
       </c>
       <c r="E19">
         <v>2820.161427799378</v>
       </c>
       <c r="F19">
-        <v>7318.583126823037</v>
+        <v>7323.963857670806</v>
       </c>
       <c r="G19">
-        <v>6426.984068168111</v>
+        <v>6456.877017322381</v>
       </c>
       <c r="H19">
-        <v>8190.668068270057</v>
+        <v>8220.561017424327</v>
       </c>
       <c r="I19">
-        <v>8.898172026310412</v>
+        <v>8.898906971002161</v>
       </c>
       <c r="J19">
-        <v>182964.5781705759</v>
+        <v>183099.0964417701</v>
       </c>
     </row>
     <row r="20">
@@ -1903,7 +1903,7 @@
         <v>0.003846153846153846</v>
       </c>
       <c r="C20">
-        <v>0.01025820512820513</v>
+        <v>0.01024769230769231</v>
       </c>
       <c r="D20">
         <v>0.01794871794871795</v>
@@ -1912,7 +1912,7 @@
         <v>444.9783417316894</v>
       </c>
       <c r="F20">
-        <v>145.2982487044055</v>
+        <v>145.1493440577966</v>
       </c>
       <c r="G20">
         <v>54.47730973494844</v>
@@ -1921,10 +1921,10 @@
         <v>254.2274454297594</v>
       </c>
       <c r="I20">
-        <v>4.978788517540114</v>
+        <v>4.977763171395988</v>
       </c>
       <c r="J20">
-        <v>3632.456217610137</v>
+        <v>3628.733601444916</v>
       </c>
     </row>
   </sheetData>

--- a/Report of Foresty_20251127/合併估算/縣市的調查相對密度.xlsx
+++ b/Report of Foresty_20251127/合併估算/縣市的調查相對密度.xlsx
@@ -692,7 +692,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -734,6 +734,16 @@
           <t>Se_E</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Mean_E_km2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Se_E_km2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -759,6 +769,12 @@
       <c r="G2">
         <v>0.012</v>
       </c>
+      <c r="H2">
+        <v>3.546</v>
+      </c>
+      <c r="I2">
+        <v>0.388</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -784,6 +800,12 @@
       <c r="G3">
         <v>0.008</v>
       </c>
+      <c r="H3">
+        <v>2.604</v>
+      </c>
+      <c r="I3">
+        <v>0.251</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -809,6 +831,12 @@
       <c r="G4">
         <v>0.004</v>
       </c>
+      <c r="H4">
+        <v>1.938</v>
+      </c>
+      <c r="I4">
+        <v>0.123</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -834,6 +862,12 @@
       <c r="G5">
         <v>0.007</v>
       </c>
+      <c r="H5">
+        <v>1.777</v>
+      </c>
+      <c r="I5">
+        <v>0.217</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -859,6 +893,12 @@
       <c r="G6">
         <v>0.003</v>
       </c>
+      <c r="H6">
+        <v>1.533</v>
+      </c>
+      <c r="I6">
+        <v>0.08699999999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -884,6 +924,12 @@
       <c r="G7">
         <v>0.005</v>
       </c>
+      <c r="H7">
+        <v>1.191</v>
+      </c>
+      <c r="I7">
+        <v>0.158</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -909,6 +955,12 @@
       <c r="G8">
         <v>0.001</v>
       </c>
+      <c r="H8">
+        <v>0.797</v>
+      </c>
+      <c r="I8">
+        <v>0.034</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -934,6 +986,12 @@
       <c r="G9">
         <v>0.003</v>
       </c>
+      <c r="H9">
+        <v>0.752</v>
+      </c>
+      <c r="I9">
+        <v>0.099</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -959,6 +1017,12 @@
       <c r="G10">
         <v>0.003</v>
       </c>
+      <c r="H10">
+        <v>0.725</v>
+      </c>
+      <c r="I10">
+        <v>0.099</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -984,6 +1048,12 @@
       <c r="G11">
         <v>0.002</v>
       </c>
+      <c r="H11">
+        <v>0.526</v>
+      </c>
+      <c r="I11">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1009,6 +1079,12 @@
       <c r="G12">
         <v>0.002</v>
       </c>
+      <c r="H12">
+        <v>0.356</v>
+      </c>
+      <c r="I12">
+        <v>0.07199999999999999</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1034,6 +1110,12 @@
       <c r="G13">
         <v>0.004</v>
       </c>
+      <c r="H13">
+        <v>0.322</v>
+      </c>
+      <c r="I13">
+        <v>0.112</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1059,6 +1141,12 @@
       <c r="G14">
         <v>0.002</v>
       </c>
+      <c r="H14">
+        <v>0.278</v>
+      </c>
+      <c r="I14">
+        <v>0.074</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1084,6 +1172,12 @@
       <c r="G15">
         <v>0.003</v>
       </c>
+      <c r="H15">
+        <v>0.167</v>
+      </c>
+      <c r="I15">
+        <v>0.093</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1109,6 +1203,12 @@
       <c r="G16">
         <v>0.004</v>
       </c>
+      <c r="H16">
+        <v>0.114</v>
+      </c>
+      <c r="I16">
+        <v>0.114</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1134,6 +1234,12 @@
       <c r="G17">
         <v>0.002</v>
       </c>
+      <c r="H17">
+        <v>0.136</v>
+      </c>
+      <c r="I17">
+        <v>0.058</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1159,6 +1265,12 @@
       <c r="G18">
         <v>0</v>
       </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1184,6 +1296,12 @@
       <c r="G19">
         <v>0</v>
       </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1207,6 +1325,12 @@
         <v>0</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
     </row>
@@ -1285,7 +1409,7 @@
         <v>0.01738185768604019</v>
       </c>
       <c r="C2">
-        <v>0.02382743074416078</v>
+        <v>0.02389369907658881</v>
       </c>
       <c r="D2">
         <v>0.0309614340032591</v>
@@ -1294,7 +1418,7 @@
         <v>1634.655200672119</v>
       </c>
       <c r="F2">
-        <v>1239.805343321347</v>
+        <v>1243.253462991463</v>
       </c>
       <c r="G2">
         <v>904.4248315058055</v>
@@ -1303,10 +1427,10 @@
         <v>1611.006731119716</v>
       </c>
       <c r="I2">
-        <v>7.122709665083784</v>
+        <v>7.125486983025485</v>
       </c>
       <c r="J2">
-        <v>30995.13358303369</v>
+        <v>31081.33657478658</v>
       </c>
     </row>
     <row r="3">
@@ -1319,7 +1443,7 @@
         <v>0.04103201740752253</v>
       </c>
       <c r="C3">
-        <v>0.04823077401305564</v>
+        <v>0.04818554553932235</v>
       </c>
       <c r="D3">
         <v>0.05564190239353435</v>
@@ -1328,7 +1452,7 @@
         <v>3645.048676261048</v>
       </c>
       <c r="F3">
-        <v>5595.999811447527</v>
+        <v>5590.752155035978</v>
       </c>
       <c r="G3">
         <v>4760.760455837863</v>
@@ -1337,10 +1461,10 @@
         <v>6455.879709052861</v>
       </c>
       <c r="I3">
-        <v>8.629807302091219</v>
+        <v>8.62886911077131</v>
       </c>
       <c r="J3">
-        <v>139899.9952861882</v>
+        <v>139768.8038758994</v>
       </c>
     </row>
     <row r="4">
@@ -1353,28 +1477,28 @@
         <v>0.02062556663644606</v>
       </c>
       <c r="C4">
-        <v>0.02517289211242067</v>
+        <v>0.02515011332728921</v>
       </c>
       <c r="D4">
-        <v>0.02991840435176791</v>
+        <v>0.0296974161378059</v>
       </c>
       <c r="E4">
         <v>2968.294063488158</v>
       </c>
       <c r="F4">
-        <v>2378.428856228241</v>
+        <v>2376.276631540488</v>
       </c>
       <c r="G4">
         <v>1948.780563039739</v>
       </c>
       <c r="H4">
-        <v>2826.802574958742</v>
+        <v>2805.92278321188</v>
       </c>
       <c r="I4">
-        <v>7.77419540423232</v>
+        <v>7.773290101121421</v>
       </c>
       <c r="J4">
-        <v>59460.72140570602</v>
+        <v>59406.91578851221</v>
       </c>
     </row>
     <row r="5">
@@ -1387,7 +1511,7 @@
         <v>0.04853675945753034</v>
       </c>
       <c r="C5">
-        <v>0.06061905781584583</v>
+        <v>0.06081120628122769</v>
       </c>
       <c r="D5">
         <v>0.07351891506067094</v>
@@ -1396,7 +1520,7 @@
         <v>1481.890645096863</v>
       </c>
       <c r="F5">
-        <v>2859.4036400372</v>
+        <v>2868.467291653323</v>
       </c>
       <c r="G5">
         <v>2289.481091739989</v>
@@ -1405,10 +1529,10 @@
         <v>3467.890477194395</v>
       </c>
       <c r="I5">
-        <v>7.958368364601598</v>
+        <v>7.961533121380898</v>
       </c>
       <c r="J5">
-        <v>71485.09100093</v>
+        <v>71711.68229133308</v>
       </c>
     </row>
     <row r="6">
@@ -1421,7 +1545,7 @@
         <v>0.01051893408134642</v>
       </c>
       <c r="C6">
-        <v>0.01682384291725105</v>
+        <v>0.01681269284712483</v>
       </c>
       <c r="D6">
         <v>0.02384291725105189</v>
@@ -1430,7 +1554,7 @@
         <v>1201.968536003113</v>
       </c>
       <c r="F6">
-        <v>643.677652419001</v>
+        <v>643.2510524442832</v>
       </c>
       <c r="G6">
         <v>402.4528063376384</v>
@@ -1439,10 +1563,10 @@
         <v>912.2263610319803</v>
       </c>
       <c r="I6">
-        <v>6.467198061070482</v>
+        <v>6.466535087296206</v>
       </c>
       <c r="J6">
-        <v>16091.94131047503</v>
+        <v>16081.27631110708</v>
       </c>
     </row>
     <row r="7">
@@ -1455,7 +1579,7 @@
         <v>0.001737619461337967</v>
       </c>
       <c r="C7">
-        <v>0.005204952215464813</v>
+        <v>0.005193657688966117</v>
       </c>
       <c r="D7">
         <v>0.009556907037358819</v>
@@ -1464,7 +1588,7 @@
         <v>446.6481564412842</v>
       </c>
       <c r="F7">
-        <v>74.00011929445675</v>
+        <v>73.83954216066584</v>
       </c>
       <c r="G7">
         <v>24.70417442937013</v>
@@ -1473,10 +1597,10 @@
         <v>135.8729593615357</v>
       </c>
       <c r="I7">
-        <v>4.304066705290124</v>
+        <v>4.301894389751022</v>
       </c>
       <c r="J7">
-        <v>1850.002982361419</v>
+        <v>1845.988554016646</v>
       </c>
     </row>
     <row r="8">
@@ -1489,28 +1613,28 @@
         <v>0.0290224032586558</v>
       </c>
       <c r="C8">
-        <v>0.03710656822810591</v>
+        <v>0.0370418533604888</v>
       </c>
       <c r="D8">
-        <v>0.04582484725050916</v>
+        <v>0.04531568228105906</v>
       </c>
       <c r="E8">
         <v>1638.188675842194</v>
       </c>
       <c r="F8">
-        <v>1934.928126381659</v>
+        <v>1931.553558925632</v>
       </c>
       <c r="G8">
         <v>1513.378009390504</v>
       </c>
       <c r="H8">
-        <v>2389.544225353427</v>
+        <v>2362.993733960611</v>
       </c>
       <c r="I8">
-        <v>7.567825460785221</v>
+        <v>7.566079910909377</v>
       </c>
       <c r="J8">
-        <v>48373.20315954147</v>
+        <v>48288.8389731408</v>
       </c>
     </row>
     <row r="9">
@@ -1559,7 +1683,7 @@
         <v>0.08242950108459871</v>
       </c>
       <c r="C10">
-        <v>0.1105898047722343</v>
+        <v>0.1109062906724512</v>
       </c>
       <c r="D10">
         <v>0.1388286334056399</v>
@@ -1568,7 +1692,7 @@
         <v>96.60219374493408</v>
       </c>
       <c r="F10">
-        <v>340.0573825067503</v>
+        <v>341.0305587145365</v>
       </c>
       <c r="G10">
         <v>253.4660445227917</v>
@@ -1577,10 +1701,10 @@
         <v>426.8901802489123</v>
       </c>
       <c r="I10">
-        <v>5.829114375448479</v>
+        <v>5.831972088266974</v>
       </c>
       <c r="J10">
-        <v>8501.434562668759</v>
+        <v>8525.763967863413</v>
       </c>
     </row>
     <row r="11">
@@ -1593,7 +1717,7 @@
         <v>0.007330246913580247</v>
       </c>
       <c r="C11">
-        <v>0.0111852237654321</v>
+        <v>0.01119074074074074</v>
       </c>
       <c r="D11">
         <v>0.0154320987654321</v>
@@ -1602,7 +1726,7 @@
         <v>1483.373205830627</v>
       </c>
       <c r="F11">
-        <v>528.135346124615</v>
+        <v>528.3958424477369</v>
       </c>
       <c r="G11">
         <v>346.1139957563503</v>
@@ -1611,10 +1735,10 @@
         <v>728.6610436975797</v>
       </c>
       <c r="I11">
-        <v>6.26935258821468</v>
+        <v>6.269845704425953</v>
       </c>
       <c r="J11">
-        <v>13203.38365311538</v>
+        <v>13209.89606119342</v>
       </c>
     </row>
     <row r="12">
@@ -1663,7 +1787,7 @@
         <v>0.0008532423208191126</v>
       </c>
       <c r="C13">
-        <v>0.004235665529010239</v>
+        <v>0.004264931740614334</v>
       </c>
       <c r="D13">
         <v>0.008532423208191127</v>
@@ -1672,7 +1796,7 @@
         <v>1015.8571365</v>
       </c>
       <c r="F13">
-        <v>136.9633663535404</v>
+        <v>137.9097108734885</v>
       </c>
       <c r="G13">
         <v>27.59021924046984</v>
@@ -1681,10 +1805,10 @@
         <v>275.9021924046984</v>
       </c>
       <c r="I13">
-        <v>4.919713491191403</v>
+        <v>4.926599201997126</v>
       </c>
       <c r="J13">
-        <v>3424.08415883851</v>
+        <v>3447.742771837213</v>
       </c>
     </row>
     <row r="14">
@@ -1730,10 +1854,10 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.04554865424430642</v>
+        <v>0.04503105590062112</v>
       </c>
       <c r="C15">
-        <v>0.05538747412008282</v>
+        <v>0.05534699792960662</v>
       </c>
       <c r="D15">
         <v>0.06573498964803312</v>
@@ -1742,19 +1866,19 @@
         <v>749.547954275055</v>
       </c>
       <c r="F15">
-        <v>1321.481569920663</v>
+        <v>1320.515854466318</v>
       </c>
       <c r="G15">
-        <v>1086.738618699977</v>
+        <v>1074.38931621475</v>
       </c>
       <c r="H15">
         <v>1568.36141562383</v>
       </c>
       <c r="I15">
-        <v>7.186508787613883</v>
+        <v>7.18577773807656</v>
       </c>
       <c r="J15">
-        <v>33037.03924801658</v>
+        <v>33012.89636165796</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.003491197183098592</v>
+        <v>0.003486971830985916</v>
       </c>
       <c r="D16">
         <v>0.01056338028169014</v>
@@ -1776,7 +1900,7 @@
         <v>75.24642469546509</v>
       </c>
       <c r="F16">
-        <v>8.362004082065489</v>
+        <v>8.351883653524412</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1785,10 +1909,10 @@
         <v>25.30107135269437</v>
       </c>
       <c r="I16">
-        <v>2.123698121102813</v>
+        <v>2.122487100670219</v>
       </c>
       <c r="J16">
-        <v>209.0501020516372</v>
+        <v>208.7970913381103</v>
       </c>
     </row>
     <row r="17">
@@ -1801,7 +1925,7 @@
         <v>0.01791044776119403</v>
       </c>
       <c r="C17">
-        <v>0.02321532338308458</v>
+        <v>0.02319837479270315</v>
       </c>
       <c r="D17">
         <v>0.02852404643449419</v>
@@ -1810,7 +1934,7 @@
         <v>1103.588787192688</v>
       </c>
       <c r="F17">
-        <v>815.51535802546</v>
+        <v>814.9199824829851</v>
       </c>
       <c r="G17">
         <v>629.1639783492753</v>
@@ -1819,10 +1943,10 @@
         <v>1002.001891445142</v>
       </c>
       <c r="I17">
-        <v>6.703820254532983</v>
+        <v>6.70308992741832</v>
       </c>
       <c r="J17">
-        <v>20387.8839506365</v>
+        <v>20372.99956207463</v>
       </c>
     </row>
     <row r="18">
@@ -1835,7 +1959,7 @@
         <v>0.00419287211740042</v>
       </c>
       <c r="C18">
-        <v>0.009378092243186583</v>
+        <v>0.009478406708595387</v>
       </c>
       <c r="D18">
         <v>0.01572327044025157</v>
@@ -1844,7 +1968,7 @@
         <v>95.39614812567139</v>
       </c>
       <c r="F18">
-        <v>28.47708074899426</v>
+        <v>28.78169101061908</v>
       </c>
       <c r="G18">
         <v>12.73188136362872</v>
@@ -1853,10 +1977,10 @@
         <v>47.7445551136077</v>
       </c>
       <c r="I18">
-        <v>3.349099579499176</v>
+        <v>3.359739456182715</v>
       </c>
       <c r="J18">
-        <v>711.9270187248566</v>
+        <v>719.542275265477</v>
       </c>
     </row>
     <row r="19">
@@ -1869,7 +1993,7 @@
         <v>0.07192807192807193</v>
       </c>
       <c r="C19">
-        <v>0.08158721278721279</v>
+        <v>0.08154255744255744</v>
       </c>
       <c r="D19">
         <v>0.09157509157509157</v>
@@ -1878,7 +2002,7 @@
         <v>2820.161427799378</v>
       </c>
       <c r="F19">
-        <v>7323.963857670806</v>
+        <v>7319.955213189218</v>
       </c>
       <c r="G19">
         <v>6456.877017322381</v>
@@ -1887,10 +2011,10 @@
         <v>8220.561017424327</v>
       </c>
       <c r="I19">
-        <v>8.898906971002161</v>
+        <v>8.898359488519866</v>
       </c>
       <c r="J19">
-        <v>183099.0964417701</v>
+        <v>182998.8803297305</v>
       </c>
     </row>
     <row r="20">
@@ -1903,7 +2027,7 @@
         <v>0.003846153846153846</v>
       </c>
       <c r="C20">
-        <v>0.01024769230769231</v>
+        <v>0.01030410256410256</v>
       </c>
       <c r="D20">
         <v>0.01794871794871795</v>
@@ -1912,7 +2036,7 @@
         <v>444.9783417316894</v>
       </c>
       <c r="F20">
-        <v>145.1493440577966</v>
+        <v>145.9483446005759</v>
       </c>
       <c r="G20">
         <v>54.47730973494844</v>
@@ -1921,10 +2045,10 @@
         <v>254.2274454297594</v>
       </c>
       <c r="I20">
-        <v>4.977763171395988</v>
+        <v>4.983252754999253</v>
       </c>
       <c r="J20">
-        <v>3628.733601444916</v>
+        <v>3648.708615014397</v>
       </c>
     </row>
   </sheetData>

--- a/Report of Foresty_20251127/合併估算/縣市的調查相對密度.xlsx
+++ b/Report of Foresty_20251127/合併估算/縣市的調查相對密度.xlsx
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.01738185768604019</v>
+        <v>0.5532817141706301</v>
       </c>
       <c r="C2">
-        <v>0.02389369907658881</v>
+        <v>0.7605600633578729</v>
       </c>
       <c r="D2">
-        <v>0.0309614340032591</v>
+        <v>0.9855330533664349</v>
       </c>
       <c r="E2">
         <v>1634.655200672119</v>
@@ -1440,13 +1440,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.04103201740752253</v>
+        <v>1.306089679087981</v>
       </c>
       <c r="C3">
-        <v>0.04818554553932235</v>
+        <v>1.533793551632556</v>
       </c>
       <c r="D3">
-        <v>0.05564190239353435</v>
+        <v>1.771136761793551</v>
       </c>
       <c r="E3">
         <v>3645.048676261048</v>
@@ -1474,13 +1474,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.02062556663644606</v>
+        <v>0.6565321768523334</v>
       </c>
       <c r="C4">
-        <v>0.02515011332728921</v>
+        <v>0.8005529710718865</v>
       </c>
       <c r="D4">
-        <v>0.0296974161378059</v>
+        <v>0.9452981150777664</v>
       </c>
       <c r="E4">
         <v>2968.294063488158</v>
@@ -1495,10 +1495,10 @@
         <v>2805.92278321188</v>
       </c>
       <c r="I4">
-        <v>7.773290101121421</v>
+        <v>7.77329010112142</v>
       </c>
       <c r="J4">
-        <v>59406.91578851221</v>
+        <v>59406.9157885122</v>
       </c>
     </row>
     <row r="5">
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.04853675945753034</v>
+        <v>1.544973037865651</v>
       </c>
       <c r="C5">
-        <v>0.06081120628122769</v>
+        <v>1.93568081500766</v>
       </c>
       <c r="D5">
-        <v>0.07351891506067094</v>
+        <v>2.340179748531794</v>
       </c>
       <c r="E5">
         <v>1481.890645096863</v>
@@ -1526,7 +1526,7 @@
         <v>2289.481091739989</v>
       </c>
       <c r="H5">
-        <v>3467.890477194395</v>
+        <v>3467.890477194394</v>
       </c>
       <c r="I5">
         <v>7.961533121380898</v>
@@ -1542,25 +1542,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.01051893408134642</v>
+        <v>0.3348280710208176</v>
       </c>
       <c r="C6">
-        <v>0.01681269284712483</v>
+        <v>0.5351646346611334</v>
       </c>
       <c r="D6">
-        <v>0.02384291725105189</v>
+        <v>0.7589436276471867</v>
       </c>
       <c r="E6">
         <v>1201.968536003113</v>
       </c>
       <c r="F6">
-        <v>643.2510524442832</v>
+        <v>643.2510524442831</v>
       </c>
       <c r="G6">
         <v>402.4528063376384</v>
       </c>
       <c r="H6">
-        <v>912.2263610319803</v>
+        <v>912.2263610319804</v>
       </c>
       <c r="I6">
         <v>6.466535087296206</v>
@@ -1576,19 +1576,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.001737619461337967</v>
+        <v>0.05531014529692279</v>
       </c>
       <c r="C7">
-        <v>0.005193657688966117</v>
+        <v>0.1653192587852374</v>
       </c>
       <c r="D7">
-        <v>0.009556907037358819</v>
+        <v>0.3042057991330754</v>
       </c>
       <c r="E7">
         <v>446.6481564412842</v>
       </c>
       <c r="F7">
-        <v>73.83954216066584</v>
+        <v>73.83954216066586</v>
       </c>
       <c r="G7">
         <v>24.70417442937013</v>
@@ -1600,7 +1600,7 @@
         <v>4.301894389751022</v>
       </c>
       <c r="J7">
-        <v>1845.988554016646</v>
+        <v>1845.988554016647</v>
       </c>
     </row>
     <row r="8">
@@ -1610,13 +1610,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.0290224032586558</v>
+        <v>0.9238117878042804</v>
       </c>
       <c r="C8">
-        <v>0.0370418533604888</v>
+        <v>1.179078812721385</v>
       </c>
       <c r="D8">
-        <v>0.04531568228105906</v>
+        <v>1.442442966922473</v>
       </c>
       <c r="E8">
         <v>1638.188675842194</v>
@@ -1680,13 +1680,13 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.08242950108459871</v>
+        <v>2.623812510842526</v>
       </c>
       <c r="C10">
-        <v>0.1109062906724512</v>
+        <v>3.530256876101434</v>
       </c>
       <c r="D10">
-        <v>0.1388286334056399</v>
+        <v>4.419052649840044</v>
       </c>
       <c r="E10">
         <v>96.60219374493408</v>
@@ -1704,7 +1704,7 @@
         <v>5.831972088266974</v>
       </c>
       <c r="J10">
-        <v>8525.763967863413</v>
+        <v>8525.763967863411</v>
       </c>
     </row>
     <row r="11">
@@ -1714,13 +1714,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.007330246913580247</v>
+        <v>0.2333290060760811</v>
       </c>
       <c r="C11">
-        <v>0.01119074074074074</v>
+        <v>0.3562123411497494</v>
       </c>
       <c r="D11">
-        <v>0.0154320987654321</v>
+        <v>0.4912189601601707</v>
       </c>
       <c r="E11">
         <v>1483.373205830627</v>
@@ -1784,13 +1784,13 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.0008532423208191126</v>
+        <v>0.02715954660271252</v>
       </c>
       <c r="C13">
-        <v>0.004264931740614334</v>
+        <v>0.1357569936936585</v>
       </c>
       <c r="D13">
-        <v>0.008532423208191127</v>
+        <v>0.2715954660271251</v>
       </c>
       <c r="E13">
         <v>1015.8571365</v>
@@ -1854,13 +1854,13 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.04503105590062112</v>
+        <v>1.433383027846262</v>
       </c>
       <c r="C15">
-        <v>0.05534699792960662</v>
+        <v>1.761749661158758</v>
       </c>
       <c r="D15">
-        <v>0.06573498964803312</v>
+        <v>2.092409707315808</v>
       </c>
       <c r="E15">
         <v>749.547954275055</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.003486971830985916</v>
+        <v>0.1109937606647211</v>
       </c>
       <c r="D16">
-        <v>0.01056338028169014</v>
+        <v>0.3362428375180887</v>
       </c>
       <c r="E16">
         <v>75.24642469546509</v>
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.01791044776119403</v>
+        <v>0.57010725883664</v>
       </c>
       <c r="C17">
-        <v>0.02319837479270315</v>
+        <v>0.7384272039914258</v>
       </c>
       <c r="D17">
-        <v>0.02852404643449419</v>
+        <v>0.9079485974065007</v>
       </c>
       <c r="E17">
         <v>1103.588787192688</v>
       </c>
       <c r="F17">
-        <v>814.9199824829851</v>
+        <v>814.919982482985</v>
       </c>
       <c r="G17">
         <v>629.1639783492753</v>
@@ -1956,13 +1956,13 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.00419287211740042</v>
+        <v>0.1334632646472917</v>
       </c>
       <c r="C18">
-        <v>0.009478406708595387</v>
+        <v>0.3017070560616676</v>
       </c>
       <c r="D18">
-        <v>0.01572327044025157</v>
+        <v>0.5004872424273438</v>
       </c>
       <c r="E18">
         <v>95.39614812567139</v>
@@ -1974,13 +1974,13 @@
         <v>12.73188136362872</v>
       </c>
       <c r="H18">
-        <v>47.7445551136077</v>
+        <v>47.74455511360769</v>
       </c>
       <c r="I18">
         <v>3.359739456182715</v>
       </c>
       <c r="J18">
-        <v>719.542275265477</v>
+        <v>719.5422752654771</v>
       </c>
     </row>
     <row r="19">
@@ -1990,13 +1990,13 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.07192807192807193</v>
+        <v>2.289541638884408</v>
       </c>
       <c r="C19">
-        <v>0.08154255744255744</v>
+        <v>2.595580217867567</v>
       </c>
       <c r="D19">
-        <v>0.09157509157509157</v>
+        <v>2.91492569765376</v>
       </c>
       <c r="E19">
         <v>2820.161427799378</v>
@@ -2005,10 +2005,10 @@
         <v>7319.955213189218</v>
       </c>
       <c r="G19">
-        <v>6456.877017322381</v>
+        <v>6456.87701732238</v>
       </c>
       <c r="H19">
-        <v>8220.561017424327</v>
+        <v>8220.561017424325</v>
       </c>
       <c r="I19">
         <v>8.898359488519866</v>
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.003846153846153846</v>
+        <v>0.122426879301458</v>
       </c>
       <c r="C20">
-        <v>0.01030410256410256</v>
+        <v>0.3279897714405592</v>
       </c>
       <c r="D20">
-        <v>0.01794871794871795</v>
+        <v>0.571325436740137</v>
       </c>
       <c r="E20">
         <v>444.9783417316894</v>
@@ -2039,7 +2039,7 @@
         <v>145.9483446005759</v>
       </c>
       <c r="G20">
-        <v>54.47730973494844</v>
+        <v>54.47730973494845</v>
       </c>
       <c r="H20">
         <v>254.2274454297594</v>
